--- a/data/output/tech_mapping_out.xlsx
+++ b/data/output/tech_mapping_out.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1361185_uab_cat/Documents/Documentos/GitHub/calliope_enbios_int/data/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_778F016C7198BA58974FD2C16D6C0E930978F452" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBB6395-F926-474B-8046-120586493027}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="o&amp;m" sheetId="1" r:id="rId1"/>
     <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="306">
   <si>
     <t>id</t>
   </si>
@@ -927,13 +946,19 @@
   </si>
   <si>
     <t>To our understanding, there is no difference in the inventories for alpine and non-alpine regions, and therefore we will use non-alpine regions' inventories to represent both. Calliope units are 100 GWh of energy stored</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,13 +1021,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1040,7 +1073,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1074,6 +1107,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1108,9 +1142,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1283,14 +1318,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,40 +1354,43 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1369,40 +1413,43 @@
         <v>79</v>
       </c>
       <c r="H2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>149</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>157</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>165</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>167</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>175</v>
       </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="s">
         <v>177</v>
       </c>
-      <c r="Q2">
-        <v>8453085.3761623</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="R2">
+        <v>8453085.3761622999</v>
+      </c>
+      <c r="S2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1425,40 +1472,43 @@
         <v>79</v>
       </c>
       <c r="H3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" t="s">
         <v>82</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>150</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>157</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>165</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>167</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>175</v>
       </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
         <v>177</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>8375209.380234506</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1480,41 +1530,44 @@
       <c r="G4" t="s">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>0.49768615902397983</v>
+      </c>
+      <c r="I4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>149</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>157</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>165</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>167</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>175</v>
       </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
         <v>177</v>
       </c>
-      <c r="Q4">
-        <v>8453085.3761623</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="R4">
+        <v>8453085.3761622999</v>
+      </c>
+      <c r="S4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1536,41 +1589,44 @@
       <c r="G5" t="s">
         <v>79</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>0.50231384097602017</v>
+      </c>
+      <c r="I5" t="s">
         <v>82</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>150</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>157</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>165</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>167</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>175</v>
       </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5" t="s">
         <v>177</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>8375209.380234506</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1587,46 +1643,49 @@
         <v>62</v>
       </c>
       <c r="F6">
-        <v>9.944444165999998</v>
+        <v>9.9444441659999985</v>
       </c>
       <c r="G6" t="s">
         <v>80</v>
       </c>
       <c r="H6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" t="s">
         <v>83</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>151</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>158</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>166</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>168</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>175</v>
       </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="s">
         <v>177</v>
       </c>
-      <c r="Q6">
-        <v>10055866.20335197</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="R6">
+        <v>10055866.203351971</v>
+      </c>
+      <c r="S6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1649,40 +1708,43 @@
         <v>79</v>
       </c>
       <c r="H7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" t="s">
         <v>84</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>152</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>157</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>165</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>167</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>175</v>
       </c>
-      <c r="O7">
-        <v>100</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
         <v>177</v>
       </c>
-      <c r="Q7">
-        <v>18050541.51624549</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7">
+        <v>18050541.516245492</v>
+      </c>
+      <c r="S7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1699,40 +1761,43 @@
         <v>64</v>
       </c>
       <c r="H8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I8" t="s">
         <v>85</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>153</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>157</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>166</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>167</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>175</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>10</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>178</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>10000</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1749,46 +1814,49 @@
         <v>65</v>
       </c>
       <c r="F9">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G9" t="s">
         <v>79</v>
       </c>
       <c r="H9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" t="s">
         <v>86</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>157</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>165</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>167</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>175</v>
       </c>
-      <c r="O9">
-        <v>100</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="s">
         <v>177</v>
       </c>
-      <c r="Q9">
-        <v>3003003.003003003</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="R9">
+        <v>3003003.0030030031</v>
+      </c>
+      <c r="S9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1810,41 +1878,44 @@
       <c r="G10" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>0.49768615902397983</v>
+      </c>
+      <c r="I10" t="s">
         <v>87</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>149</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>157</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>165</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>167</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>175</v>
       </c>
-      <c r="O10">
-        <v>100</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10" t="s">
         <v>177</v>
       </c>
-      <c r="Q10">
-        <v>8453085.3761623</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R10">
+        <v>8453085.3761622999</v>
+      </c>
+      <c r="S10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1866,41 +1937,44 @@
       <c r="G11" t="s">
         <v>79</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>0.50231384097602017</v>
+      </c>
+      <c r="I11" t="s">
         <v>88</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>150</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>157</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>165</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>167</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>175</v>
       </c>
-      <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="s">
         <v>177</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>8375209.380234506</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1923,40 +1997,43 @@
         <v>79</v>
       </c>
       <c r="H12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>151</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>157</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>166</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>167</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>175</v>
       </c>
-      <c r="O12">
-        <v>100</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12" t="s">
         <v>177</v>
       </c>
-      <c r="Q12">
-        <v>7194244.604316547</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="R12">
+        <v>7194244.6043165466</v>
+      </c>
+      <c r="S12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1979,40 +2056,43 @@
         <v>79</v>
       </c>
       <c r="H13" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" t="s">
         <v>90</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>152</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>157</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>165</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>167</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>175</v>
       </c>
-      <c r="O13">
-        <v>100</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="s">
         <v>177</v>
       </c>
-      <c r="Q13">
-        <v>18050541.51624549</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="R13">
+        <v>18050541.516245492</v>
+      </c>
+      <c r="S13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2029,40 +2109,43 @@
         <v>66</v>
       </c>
       <c r="H14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" t="s">
         <v>91</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>66</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>157</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>165</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>328</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>169</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>176</v>
       </c>
-      <c r="O14">
-        <v>100</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14" t="s">
         <v>179</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>304.8780487804878</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2079,40 +2162,43 @@
         <v>66</v>
       </c>
       <c r="H15" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" t="s">
         <v>92</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>159</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>166</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>170</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>175</v>
       </c>
-      <c r="O15">
-        <v>100</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15" t="s">
         <v>177</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>100000000</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2129,40 +2215,43 @@
         <v>66</v>
       </c>
       <c r="H16" t="s">
+        <v>305</v>
+      </c>
+      <c r="I16" t="s">
         <v>93</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>66</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>158</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>166</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>170</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>175</v>
       </c>
-      <c r="O16">
-        <v>100</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16" t="s">
         <v>177</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>100000000</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2179,40 +2268,43 @@
         <v>66</v>
       </c>
       <c r="H17" t="s">
+        <v>305</v>
+      </c>
+      <c r="I17" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>66</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>158</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>166</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>170</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>175</v>
       </c>
-      <c r="O17">
-        <v>100</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="s">
         <v>177</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>100000000</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2229,40 +2321,43 @@
         <v>66</v>
       </c>
       <c r="H18" t="s">
+        <v>305</v>
+      </c>
+      <c r="I18" t="s">
         <v>95</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>66</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>159</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>166</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>170</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>175</v>
       </c>
-      <c r="O18">
-        <v>100</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18" t="s">
         <v>177</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>100000000</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2279,40 +2374,43 @@
         <v>66</v>
       </c>
       <c r="H19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I19" t="s">
         <v>96</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>158</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>165</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>170</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>175</v>
       </c>
-      <c r="O19">
-        <v>100</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19" t="s">
         <v>177</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>100000000</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2329,40 +2427,43 @@
         <v>66</v>
       </c>
       <c r="H20" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" t="s">
         <v>97</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>66</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>160</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>165</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>170</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>175</v>
       </c>
-      <c r="O20">
-        <v>100</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20" t="s">
         <v>177</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>100000000</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2379,40 +2480,43 @@
         <v>66</v>
       </c>
       <c r="H21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" t="s">
         <v>98</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>161</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>165</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>170</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>175</v>
       </c>
-      <c r="O21">
-        <v>100</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21" t="s">
         <v>177</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>100000000</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2429,40 +2533,43 @@
         <v>66</v>
       </c>
       <c r="H22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" t="s">
         <v>99</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>66</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>158</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>166</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>170</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>175</v>
       </c>
-      <c r="O22">
-        <v>100</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22" t="s">
         <v>177</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>100000000</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2479,40 +2586,43 @@
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="I23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" t="s">
         <v>66</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>162</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>165</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>169</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>176</v>
       </c>
-      <c r="O23">
-        <v>100</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23" t="s">
         <v>179</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>100000</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2529,40 +2639,43 @@
         <v>66</v>
       </c>
       <c r="H24" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" t="s">
         <v>101</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>66</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>162</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>165</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>169</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>176</v>
       </c>
-      <c r="O24">
-        <v>100</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24" t="s">
         <v>179</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>100000</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2579,40 +2692,43 @@
         <v>66</v>
       </c>
       <c r="H25" t="s">
+        <v>305</v>
+      </c>
+      <c r="I25" t="s">
         <v>101</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>66</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>162</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>165</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>169</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>176</v>
       </c>
-      <c r="O25">
-        <v>100</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="Q25" t="s">
         <v>179</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>100000</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -2629,40 +2745,43 @@
         <v>67</v>
       </c>
       <c r="H26" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" t="s">
         <v>102</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>154</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>163</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>166</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>171</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>175</v>
       </c>
-      <c r="O26">
-        <v>100</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="P26">
+        <v>100</v>
+      </c>
+      <c r="Q26" t="s">
         <v>177</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>360000000</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2679,40 +2798,43 @@
         <v>68</v>
       </c>
       <c r="H27" t="s">
+        <v>305</v>
+      </c>
+      <c r="I27" t="s">
         <v>103</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>154</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>158</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>166</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>171</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>175</v>
       </c>
-      <c r="O27">
-        <v>100</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27" t="s">
         <v>177</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>360000000</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2729,40 +2851,43 @@
         <v>69</v>
       </c>
       <c r="H28" t="s">
+        <v>305</v>
+      </c>
+      <c r="I28" t="s">
         <v>104</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>154</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>163</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>166</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>171</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>175</v>
       </c>
-      <c r="O28">
-        <v>100</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28" t="s">
         <v>177</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>360000000</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -2779,40 +2904,43 @@
         <v>70</v>
       </c>
       <c r="H29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I29" t="s">
         <v>105</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>154</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>163</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>166</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>171</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>175</v>
       </c>
-      <c r="O29">
-        <v>100</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="P29">
+        <v>100</v>
+      </c>
+      <c r="Q29" t="s">
         <v>177</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>360000000</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -2829,40 +2957,43 @@
         <v>71</v>
       </c>
       <c r="H30" t="s">
+        <v>305</v>
+      </c>
+      <c r="I30" t="s">
         <v>93</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>154</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>158</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>166</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>171</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>175</v>
       </c>
-      <c r="O30">
-        <v>100</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Q30" t="s">
         <v>177</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>360000000</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>36</v>
       </c>
@@ -2879,40 +3010,43 @@
         <v>72</v>
       </c>
       <c r="H31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I31" t="s">
         <v>106</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>154</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>157</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>166</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>171</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>175</v>
       </c>
-      <c r="O31">
-        <v>100</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="Q31" t="s">
         <v>177</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>360000000</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>37</v>
       </c>
@@ -2929,40 +3063,43 @@
         <v>73</v>
       </c>
       <c r="H32" t="s">
+        <v>305</v>
+      </c>
+      <c r="I32" t="s">
         <v>95</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>154</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>159</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>166</v>
       </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>171</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>175</v>
       </c>
-      <c r="O32">
-        <v>100</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="P32">
+        <v>100</v>
+      </c>
+      <c r="Q32" t="s">
         <v>177</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>360000000</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>38</v>
       </c>
@@ -2979,40 +3116,43 @@
         <v>74</v>
       </c>
       <c r="H33" t="s">
+        <v>305</v>
+      </c>
+      <c r="I33" t="s">
         <v>96</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>154</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>158</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>165</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>171</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>175</v>
       </c>
-      <c r="O33">
-        <v>100</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="P33">
+        <v>100</v>
+      </c>
+      <c r="Q33" t="s">
         <v>177</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>360000000</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44</v>
       </c>
@@ -3035,40 +3175,43 @@
         <v>79</v>
       </c>
       <c r="H34" t="s">
+        <v>305</v>
+      </c>
+      <c r="I34" t="s">
         <v>107</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>155</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>157</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>165</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>167</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>175</v>
       </c>
-      <c r="O34">
-        <v>100</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="P34">
+        <v>100</v>
+      </c>
+      <c r="Q34" t="s">
         <v>177</v>
       </c>
-      <c r="Q34">
-        <v>18939393.93939394</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="R34">
+        <v>18939393.939393941</v>
+      </c>
+      <c r="S34" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56</v>
       </c>
@@ -3085,40 +3228,43 @@
         <v>76</v>
       </c>
       <c r="H35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I35" t="s">
         <v>108</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>156</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>164</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>166</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>172</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>175</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
         <v>180</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>57</v>
       </c>
@@ -3135,40 +3281,43 @@
         <v>76</v>
       </c>
       <c r="H36" t="s">
+        <v>305</v>
+      </c>
+      <c r="I36" t="s">
         <v>109</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>156</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>157</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>165</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>173</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>175</v>
       </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
         <v>181</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>58</v>
       </c>
@@ -3185,40 +3334,43 @@
         <v>77</v>
       </c>
       <c r="H37" t="s">
+        <v>305</v>
+      </c>
+      <c r="I37" t="s">
         <v>110</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>156</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>157</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>165</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>172</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>175</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
         <v>180</v>
       </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>59</v>
       </c>
@@ -3235,40 +3387,43 @@
         <v>78</v>
       </c>
       <c r="H38" t="s">
+        <v>305</v>
+      </c>
+      <c r="I38" t="s">
         <v>111</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>156</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>157</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>165</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>172</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>175</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
         <v>180</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>60</v>
       </c>
@@ -3285,40 +3440,43 @@
         <v>76</v>
       </c>
       <c r="H39" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" t="s">
         <v>112</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>156</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>158</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>165</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>174</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>175</v>
       </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
         <v>182</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>61</v>
       </c>
@@ -3335,40 +3493,43 @@
         <v>76</v>
       </c>
       <c r="H40" t="s">
+        <v>305</v>
+      </c>
+      <c r="I40" t="s">
         <v>113</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>156</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>157</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>165</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>173</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>175</v>
       </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
         <v>181</v>
       </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>62</v>
       </c>
@@ -3385,40 +3546,43 @@
         <v>76</v>
       </c>
       <c r="H41" t="s">
+        <v>305</v>
+      </c>
+      <c r="I41" t="s">
         <v>114</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>156</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>157</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>165</v>
       </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>172</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>175</v>
       </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
         <v>180</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3441,40 +3605,43 @@
         <v>79</v>
       </c>
       <c r="H42" t="s">
+        <v>305</v>
+      </c>
+      <c r="I42" t="s">
         <v>115</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>149</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>157</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>165</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>167</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>175</v>
       </c>
-      <c r="O42">
-        <v>100</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="P42">
+        <v>100</v>
+      </c>
+      <c r="Q42" t="s">
         <v>177</v>
       </c>
-      <c r="Q42">
-        <v>8453085.3761623</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="R42">
+        <v>8453085.3761622999</v>
+      </c>
+      <c r="S42" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3497,40 +3664,43 @@
         <v>79</v>
       </c>
       <c r="H43" t="s">
+        <v>305</v>
+      </c>
+      <c r="I43" t="s">
         <v>116</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>150</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>157</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>165</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>167</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>175</v>
       </c>
-      <c r="O43">
-        <v>100</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43" t="s">
         <v>177</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>8375209.380234506</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3552,41 +3722,44 @@
       <c r="G44" t="s">
         <v>79</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44">
+        <v>0.49768615902397983</v>
+      </c>
+      <c r="I44" t="s">
         <v>115</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>149</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>157</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>165</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
         <v>167</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>175</v>
       </c>
-      <c r="O44">
-        <v>100</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="P44">
+        <v>100</v>
+      </c>
+      <c r="Q44" t="s">
         <v>177</v>
       </c>
-      <c r="Q44">
-        <v>8453085.3761623</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="R44">
+        <v>8453085.3761622999</v>
+      </c>
+      <c r="S44" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3608,41 +3781,44 @@
       <c r="G45" t="s">
         <v>79</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45">
+        <v>0.50231384097602017</v>
+      </c>
+      <c r="I45" t="s">
         <v>116</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>150</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>157</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>165</v>
       </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>167</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>175</v>
       </c>
-      <c r="O45">
-        <v>100</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="P45">
+        <v>100</v>
+      </c>
+      <c r="Q45" t="s">
         <v>177</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>8375209.380234506</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3659,46 +3835,49 @@
         <v>62</v>
       </c>
       <c r="F46">
-        <v>9.944444165999998</v>
+        <v>9.9444441659999985</v>
       </c>
       <c r="G46" t="s">
         <v>80</v>
       </c>
       <c r="H46" t="s">
+        <v>305</v>
+      </c>
+      <c r="I46" t="s">
         <v>117</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>151</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>158</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>166</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
         <v>168</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>175</v>
       </c>
-      <c r="O46">
-        <v>100</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46" t="s">
         <v>177</v>
       </c>
-      <c r="Q46">
-        <v>10055866.20335197</v>
-      </c>
-      <c r="R46" t="s">
+      <c r="R46">
+        <v>10055866.203351971</v>
+      </c>
+      <c r="S46" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -3721,40 +3900,43 @@
         <v>79</v>
       </c>
       <c r="H47" t="s">
+        <v>305</v>
+      </c>
+      <c r="I47" t="s">
         <v>118</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>152</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>157</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>165</v>
       </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>167</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>175</v>
       </c>
-      <c r="O47">
-        <v>100</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47" t="s">
         <v>177</v>
       </c>
-      <c r="Q47">
-        <v>18050541.51624549</v>
-      </c>
-      <c r="R47" t="s">
+      <c r="R47">
+        <v>18050541.516245492</v>
+      </c>
+      <c r="S47" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -3771,40 +3953,43 @@
         <v>64</v>
       </c>
       <c r="H48" t="s">
+        <v>305</v>
+      </c>
+      <c r="I48" t="s">
         <v>119</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>153</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>157</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>166</v>
       </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
         <v>167</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>175</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>10</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>178</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>10000</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -3821,46 +4006,49 @@
         <v>65</v>
       </c>
       <c r="F49">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G49" t="s">
         <v>79</v>
       </c>
       <c r="H49" t="s">
+        <v>305</v>
+      </c>
+      <c r="I49" t="s">
         <v>120</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>65</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>157</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>165</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
         <v>167</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>175</v>
       </c>
-      <c r="O49">
-        <v>100</v>
-      </c>
-      <c r="P49" t="s">
+      <c r="P49">
+        <v>100</v>
+      </c>
+      <c r="Q49" t="s">
         <v>177</v>
       </c>
-      <c r="Q49">
-        <v>3003003.003003003</v>
-      </c>
-      <c r="R49" t="s">
+      <c r="R49">
+        <v>3003003.0030030031</v>
+      </c>
+      <c r="S49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -3882,41 +4070,44 @@
       <c r="G50" t="s">
         <v>79</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50">
+        <v>0.49768615902397983</v>
+      </c>
+      <c r="I50" t="s">
         <v>121</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>149</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>157</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>165</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
         <v>167</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>175</v>
       </c>
-      <c r="O50">
-        <v>100</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="P50">
+        <v>100</v>
+      </c>
+      <c r="Q50" t="s">
         <v>177</v>
       </c>
-      <c r="Q50">
-        <v>8453085.3761623</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="R50">
+        <v>8453085.3761622999</v>
+      </c>
+      <c r="S50" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -3938,41 +4129,44 @@
       <c r="G51" t="s">
         <v>79</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51">
+        <v>0.50231384097602017</v>
+      </c>
+      <c r="I51" t="s">
         <v>122</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>150</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>157</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>165</v>
       </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
         <v>167</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>175</v>
       </c>
-      <c r="O51">
-        <v>100</v>
-      </c>
-      <c r="P51" t="s">
+      <c r="P51">
+        <v>100</v>
+      </c>
+      <c r="Q51" t="s">
         <v>177</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>8375209.380234506</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -3995,40 +4189,43 @@
         <v>79</v>
       </c>
       <c r="H52" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" t="s">
         <v>123</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>151</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>157</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>166</v>
       </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
         <v>167</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>175</v>
       </c>
-      <c r="O52">
-        <v>100</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="P52">
+        <v>100</v>
+      </c>
+      <c r="Q52" t="s">
         <v>177</v>
       </c>
-      <c r="Q52">
-        <v>7194244.604316547</v>
-      </c>
-      <c r="R52" t="s">
+      <c r="R52">
+        <v>7194244.6043165466</v>
+      </c>
+      <c r="S52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -4051,40 +4248,43 @@
         <v>79</v>
       </c>
       <c r="H53" t="s">
+        <v>305</v>
+      </c>
+      <c r="I53" t="s">
         <v>124</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>152</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>157</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>165</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
         <v>167</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>175</v>
       </c>
-      <c r="O53">
-        <v>100</v>
-      </c>
-      <c r="P53" t="s">
+      <c r="P53">
+        <v>100</v>
+      </c>
+      <c r="Q53" t="s">
         <v>177</v>
       </c>
-      <c r="Q53">
-        <v>18050541.51624549</v>
-      </c>
-      <c r="R53" t="s">
+      <c r="R53">
+        <v>18050541.516245492</v>
+      </c>
+      <c r="S53" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>13</v>
       </c>
@@ -4101,40 +4301,43 @@
         <v>66</v>
       </c>
       <c r="H54" t="s">
+        <v>305</v>
+      </c>
+      <c r="I54" t="s">
         <v>125</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>66</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>157</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>165</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>328</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>169</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>176</v>
       </c>
-      <c r="O54">
-        <v>100</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="P54">
+        <v>100</v>
+      </c>
+      <c r="Q54" t="s">
         <v>179</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>304.8780487804878</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -4151,40 +4354,43 @@
         <v>66</v>
       </c>
       <c r="H55" t="s">
+        <v>305</v>
+      </c>
+      <c r="I55" t="s">
         <v>126</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>66</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>159</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>166</v>
       </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>170</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>175</v>
       </c>
-      <c r="O55">
-        <v>100</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55" t="s">
         <v>177</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>100000000</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -4201,40 +4407,43 @@
         <v>66</v>
       </c>
       <c r="H56" t="s">
+        <v>305</v>
+      </c>
+      <c r="I56" t="s">
         <v>127</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>66</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>158</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>166</v>
       </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
         <v>170</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>175</v>
       </c>
-      <c r="O56">
-        <v>100</v>
-      </c>
-      <c r="P56" t="s">
+      <c r="P56">
+        <v>100</v>
+      </c>
+      <c r="Q56" t="s">
         <v>177</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>100000000</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -4251,40 +4460,43 @@
         <v>66</v>
       </c>
       <c r="H57" t="s">
+        <v>305</v>
+      </c>
+      <c r="I57" t="s">
         <v>128</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>66</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>158</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>166</v>
       </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
         <v>170</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>175</v>
       </c>
-      <c r="O57">
-        <v>100</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="P57">
+        <v>100</v>
+      </c>
+      <c r="Q57" t="s">
         <v>177</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>100000000</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17</v>
       </c>
@@ -4301,40 +4513,43 @@
         <v>66</v>
       </c>
       <c r="H58" t="s">
+        <v>305</v>
+      </c>
+      <c r="I58" t="s">
         <v>129</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>66</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>159</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>166</v>
       </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
         <v>170</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>175</v>
       </c>
-      <c r="O58">
-        <v>100</v>
-      </c>
-      <c r="P58" t="s">
+      <c r="P58">
+        <v>100</v>
+      </c>
+      <c r="Q58" t="s">
         <v>177</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>100000000</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>18</v>
       </c>
@@ -4351,40 +4566,43 @@
         <v>66</v>
       </c>
       <c r="H59" t="s">
+        <v>305</v>
+      </c>
+      <c r="I59" t="s">
         <v>130</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>66</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>158</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>165</v>
       </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
         <v>170</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>175</v>
       </c>
-      <c r="O59">
-        <v>100</v>
-      </c>
-      <c r="P59" t="s">
+      <c r="P59">
+        <v>100</v>
+      </c>
+      <c r="Q59" t="s">
         <v>177</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>100000000</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>19</v>
       </c>
@@ -4401,40 +4619,43 @@
         <v>66</v>
       </c>
       <c r="H60" t="s">
+        <v>305</v>
+      </c>
+      <c r="I60" t="s">
         <v>131</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>66</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>160</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>165</v>
       </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
         <v>170</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>175</v>
       </c>
-      <c r="O60">
-        <v>100</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="P60">
+        <v>100</v>
+      </c>
+      <c r="Q60" t="s">
         <v>177</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>100000000</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20</v>
       </c>
@@ -4451,40 +4672,43 @@
         <v>66</v>
       </c>
       <c r="H61" t="s">
+        <v>305</v>
+      </c>
+      <c r="I61" t="s">
         <v>132</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>66</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>161</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>165</v>
       </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
         <v>170</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>175</v>
       </c>
-      <c r="O61">
-        <v>100</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="P61">
+        <v>100</v>
+      </c>
+      <c r="Q61" t="s">
         <v>177</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>100000000</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>21</v>
       </c>
@@ -4501,40 +4725,43 @@
         <v>66</v>
       </c>
       <c r="H62" t="s">
+        <v>305</v>
+      </c>
+      <c r="I62" t="s">
         <v>133</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>66</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>158</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>166</v>
       </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
         <v>170</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>175</v>
       </c>
-      <c r="O62">
-        <v>100</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="P62">
+        <v>100</v>
+      </c>
+      <c r="Q62" t="s">
         <v>177</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>100000000</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>24</v>
       </c>
@@ -4551,40 +4778,43 @@
         <v>66</v>
       </c>
       <c r="H63" t="s">
+        <v>305</v>
+      </c>
+      <c r="I63" t="s">
         <v>134</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>66</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>162</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>165</v>
       </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
         <v>169</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>176</v>
       </c>
-      <c r="O63">
-        <v>100</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="P63">
+        <v>100</v>
+      </c>
+      <c r="Q63" t="s">
         <v>179</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>100000</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>25</v>
       </c>
@@ -4601,40 +4831,43 @@
         <v>66</v>
       </c>
       <c r="H64" t="s">
+        <v>305</v>
+      </c>
+      <c r="I64" t="s">
         <v>135</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>66</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>162</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>165</v>
       </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
         <v>169</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>176</v>
       </c>
-      <c r="O64">
-        <v>100</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="P64">
+        <v>100</v>
+      </c>
+      <c r="Q64" t="s">
         <v>179</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>100000</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>26</v>
       </c>
@@ -4651,40 +4884,43 @@
         <v>66</v>
       </c>
       <c r="H65" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" t="s">
         <v>135</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>66</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>162</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>165</v>
       </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
         <v>169</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>176</v>
       </c>
-      <c r="O65">
-        <v>100</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="Q65" t="s">
         <v>179</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>100000</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>27</v>
       </c>
@@ -4701,40 +4937,43 @@
         <v>67</v>
       </c>
       <c r="H66" t="s">
+        <v>305</v>
+      </c>
+      <c r="I66" t="s">
         <v>136</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>154</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>163</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>166</v>
       </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
         <v>171</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>175</v>
       </c>
-      <c r="O66">
-        <v>100</v>
-      </c>
-      <c r="P66" t="s">
+      <c r="P66">
+        <v>100</v>
+      </c>
+      <c r="Q66" t="s">
         <v>177</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>360000000</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>28</v>
       </c>
@@ -4751,40 +4990,43 @@
         <v>68</v>
       </c>
       <c r="H67" t="s">
+        <v>305</v>
+      </c>
+      <c r="I67" t="s">
         <v>137</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>154</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>158</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>166</v>
       </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>171</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>175</v>
       </c>
-      <c r="O67">
-        <v>100</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="P67">
+        <v>100</v>
+      </c>
+      <c r="Q67" t="s">
         <v>177</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>360000000</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>30</v>
       </c>
@@ -4801,40 +5043,43 @@
         <v>69</v>
       </c>
       <c r="H68" t="s">
+        <v>305</v>
+      </c>
+      <c r="I68" t="s">
         <v>138</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>154</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>163</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>166</v>
       </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
         <v>171</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>175</v>
       </c>
-      <c r="O68">
-        <v>100</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="P68">
+        <v>100</v>
+      </c>
+      <c r="Q68" t="s">
         <v>177</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>360000000</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>31</v>
       </c>
@@ -4851,40 +5096,43 @@
         <v>70</v>
       </c>
       <c r="H69" t="s">
+        <v>305</v>
+      </c>
+      <c r="I69" t="s">
         <v>139</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>154</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>163</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>166</v>
       </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
         <v>171</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>175</v>
       </c>
-      <c r="O69">
-        <v>100</v>
-      </c>
-      <c r="P69" t="s">
+      <c r="P69">
+        <v>100</v>
+      </c>
+      <c r="Q69" t="s">
         <v>177</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>360000000</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>35</v>
       </c>
@@ -4901,40 +5149,43 @@
         <v>71</v>
       </c>
       <c r="H70" t="s">
+        <v>305</v>
+      </c>
+      <c r="I70" t="s">
         <v>127</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>154</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>158</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>166</v>
       </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
         <v>171</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>175</v>
       </c>
-      <c r="O70">
-        <v>100</v>
-      </c>
-      <c r="P70" t="s">
+      <c r="P70">
+        <v>100</v>
+      </c>
+      <c r="Q70" t="s">
         <v>177</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>360000000</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>36</v>
       </c>
@@ -4951,40 +5202,43 @@
         <v>72</v>
       </c>
       <c r="H71" t="s">
+        <v>305</v>
+      </c>
+      <c r="I71" t="s">
         <v>140</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>154</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>157</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>166</v>
       </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
         <v>171</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>175</v>
       </c>
-      <c r="O71">
-        <v>100</v>
-      </c>
-      <c r="P71" t="s">
+      <c r="P71">
+        <v>100</v>
+      </c>
+      <c r="Q71" t="s">
         <v>177</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>360000000</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>37</v>
       </c>
@@ -5001,40 +5255,43 @@
         <v>73</v>
       </c>
       <c r="H72" t="s">
+        <v>305</v>
+      </c>
+      <c r="I72" t="s">
         <v>129</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>154</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>159</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>166</v>
       </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
         <v>171</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>175</v>
       </c>
-      <c r="O72">
-        <v>100</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="P72">
+        <v>100</v>
+      </c>
+      <c r="Q72" t="s">
         <v>177</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>360000000</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>38</v>
       </c>
@@ -5051,40 +5308,43 @@
         <v>74</v>
       </c>
       <c r="H73" t="s">
+        <v>305</v>
+      </c>
+      <c r="I73" t="s">
         <v>130</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>154</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>158</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>165</v>
       </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>171</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>175</v>
       </c>
-      <c r="O73">
-        <v>100</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="P73">
+        <v>100</v>
+      </c>
+      <c r="Q73" t="s">
         <v>177</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>360000000</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>44</v>
       </c>
@@ -5107,40 +5367,43 @@
         <v>79</v>
       </c>
       <c r="H74" t="s">
+        <v>305</v>
+      </c>
+      <c r="I74" t="s">
         <v>141</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>155</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>157</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>165</v>
       </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
         <v>167</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>175</v>
       </c>
-      <c r="O74">
-        <v>100</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="P74">
+        <v>100</v>
+      </c>
+      <c r="Q74" t="s">
         <v>177</v>
       </c>
-      <c r="Q74">
-        <v>18939393.93939394</v>
-      </c>
-      <c r="R74" t="s">
+      <c r="R74">
+        <v>18939393.939393941</v>
+      </c>
+      <c r="S74" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>56</v>
       </c>
@@ -5157,40 +5420,43 @@
         <v>76</v>
       </c>
       <c r="H75" t="s">
+        <v>305</v>
+      </c>
+      <c r="I75" t="s">
         <v>142</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>156</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>164</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>166</v>
       </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
         <v>172</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>175</v>
       </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
         <v>180</v>
       </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="R75" t="s">
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>57</v>
       </c>
@@ -5207,40 +5473,43 @@
         <v>76</v>
       </c>
       <c r="H76" t="s">
+        <v>305</v>
+      </c>
+      <c r="I76" t="s">
         <v>143</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>156</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>157</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>165</v>
       </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
         <v>173</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>175</v>
       </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
         <v>181</v>
       </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="R76" t="s">
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>58</v>
       </c>
@@ -5257,40 +5526,43 @@
         <v>77</v>
       </c>
       <c r="H77" t="s">
+        <v>305</v>
+      </c>
+      <c r="I77" t="s">
         <v>144</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>156</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>157</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>165</v>
       </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
         <v>172</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>175</v>
       </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="s">
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s">
         <v>180</v>
       </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="R77" t="s">
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>59</v>
       </c>
@@ -5307,40 +5579,43 @@
         <v>78</v>
       </c>
       <c r="H78" t="s">
+        <v>305</v>
+      </c>
+      <c r="I78" t="s">
         <v>145</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>156</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>157</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>165</v>
       </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
         <v>172</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>175</v>
       </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78" t="s">
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s">
         <v>180</v>
       </c>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-      <c r="R78" t="s">
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>60</v>
       </c>
@@ -5357,40 +5632,43 @@
         <v>76</v>
       </c>
       <c r="H79" t="s">
+        <v>305</v>
+      </c>
+      <c r="I79" t="s">
         <v>146</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>156</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>158</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>165</v>
       </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
         <v>174</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>175</v>
       </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79" t="s">
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s">
         <v>182</v>
       </c>
-      <c r="Q79">
-        <v>1</v>
-      </c>
-      <c r="R79" t="s">
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>61</v>
       </c>
@@ -5407,40 +5685,43 @@
         <v>76</v>
       </c>
       <c r="H80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I80" t="s">
         <v>147</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>156</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>157</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>165</v>
       </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
         <v>173</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>175</v>
       </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" t="s">
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s">
         <v>181</v>
       </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="R80" t="s">
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>62</v>
       </c>
@@ -5457,36 +5738,39 @@
         <v>76</v>
       </c>
       <c r="H81" t="s">
+        <v>305</v>
+      </c>
+      <c r="I81" t="s">
         <v>148</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>156</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>157</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>165</v>
       </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>172</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>175</v>
       </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81" t="s">
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s">
         <v>180</v>
       </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="R81" t="s">
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5496,14 +5780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5843,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5615,7 +5899,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5662,7 +5946,7 @@
         <v>179</v>
       </c>
       <c r="P3">
-        <v>11.16694584031267</v>
+        <v>11.166945840312669</v>
       </c>
       <c r="Q3" t="s">
         <v>276</v>
@@ -5671,7 +5955,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5727,7 +6011,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5774,7 +6058,7 @@
         <v>179</v>
       </c>
       <c r="P5">
-        <v>11.16694584031267</v>
+        <v>11.166945840312669</v>
       </c>
       <c r="Q5" t="s">
         <v>276</v>
@@ -5783,7 +6067,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5800,7 +6084,7 @@
         <v>62</v>
       </c>
       <c r="F6">
-        <v>9.944444165999998</v>
+        <v>9.9444441659999985</v>
       </c>
       <c r="G6" t="s">
         <v>80</v>
@@ -5830,7 +6114,7 @@
         <v>179</v>
       </c>
       <c r="P6">
-        <v>2961.236673379719</v>
+        <v>2961.2366733797189</v>
       </c>
       <c r="Q6" t="s">
         <v>277</v>
@@ -5839,7 +6123,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5895,7 +6179,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5945,7 +6229,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5962,7 +6246,7 @@
         <v>65</v>
       </c>
       <c r="F9">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G9" t="s">
         <v>79</v>
@@ -5998,7 +6282,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6054,7 +6338,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6101,7 +6385,7 @@
         <v>179</v>
       </c>
       <c r="P11">
-        <v>11.16694584031267</v>
+        <v>11.166945840312669</v>
       </c>
       <c r="Q11" t="s">
         <v>276</v>
@@ -6110,7 +6394,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6157,7 +6441,7 @@
         <v>179</v>
       </c>
       <c r="P12">
-        <v>504859.2704783541</v>
+        <v>504859.27047835413</v>
       </c>
       <c r="Q12" t="s">
         <v>279</v>
@@ -6166,7 +6450,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6222,7 +6506,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6269,7 +6553,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6316,7 +6600,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6363,7 +6647,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6389,7 +6673,7 @@
         <v>267</v>
       </c>
       <c r="K17">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="L17" t="s">
         <v>169</v>
@@ -6410,7 +6694,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6457,7 +6741,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6504,7 +6788,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6554,7 +6838,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6595,7 +6879,7 @@
         <v>179</v>
       </c>
       <c r="P21">
-        <v>7.253209545223761</v>
+        <v>7.2532095452237613</v>
       </c>
       <c r="Q21" t="s">
         <v>192</v>
@@ -6604,7 +6888,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6654,7 +6938,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6680,7 +6964,7 @@
         <v>267</v>
       </c>
       <c r="K23">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L23" t="s">
         <v>169</v>
@@ -6695,13 +6979,13 @@
         <v>179</v>
       </c>
       <c r="P23">
-        <v>175438.5964912281</v>
+        <v>175438.59649122809</v>
       </c>
       <c r="Q23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6751,7 +7035,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6798,7 +7082,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6845,7 +7129,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6892,7 +7176,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6939,7 +7223,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6965,7 +7249,7 @@
         <v>267</v>
       </c>
       <c r="K29">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L29" t="s">
         <v>169</v>
@@ -6986,7 +7270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7012,7 +7296,7 @@
         <v>267</v>
       </c>
       <c r="K30">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L30" t="s">
         <v>169</v>
@@ -7033,7 +7317,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7080,7 +7364,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7130,7 +7414,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7156,7 +7440,7 @@
         <v>267</v>
       </c>
       <c r="K33">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L33" t="s">
         <v>169</v>
@@ -7171,7 +7455,7 @@
         <v>179</v>
       </c>
       <c r="P33">
-        <v>2325581.395348838</v>
+        <v>2325581.3953488381</v>
       </c>
       <c r="Q33" t="s">
         <v>184</v>
@@ -7180,7 +7464,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7206,7 +7490,7 @@
         <v>267</v>
       </c>
       <c r="K34">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L34" t="s">
         <v>169</v>
@@ -7227,7 +7511,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7253,7 +7537,7 @@
         <v>267</v>
       </c>
       <c r="K35">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L35" t="s">
         <v>169</v>
@@ -7274,7 +7558,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7321,7 +7605,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7347,7 +7631,7 @@
         <v>267</v>
       </c>
       <c r="K37">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="L37" t="s">
         <v>169</v>
@@ -7368,7 +7652,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7415,7 +7699,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7462,7 +7746,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7512,7 +7796,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7562,7 +7846,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7612,7 +7896,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -7662,7 +7946,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -7712,7 +7996,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -7762,7 +8046,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -7812,7 +8096,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>41</v>
       </c>
@@ -7862,7 +8146,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41</v>
       </c>
@@ -7912,7 +8196,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42</v>
       </c>
@@ -7929,7 +8213,7 @@
         <v>65</v>
       </c>
       <c r="F49">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G49" t="s">
         <v>79</v>
@@ -7959,7 +8243,7 @@
         <v>177</v>
       </c>
       <c r="P49">
-        <v>3003003.003003003</v>
+        <v>3003003.0030030031</v>
       </c>
       <c r="Q49" t="s">
         <v>288</v>
@@ -7968,7 +8252,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
@@ -8018,7 +8302,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -8065,7 +8349,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -8112,7 +8396,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -8159,7 +8443,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -8206,7 +8490,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -8247,13 +8531,13 @@
         <v>275</v>
       </c>
       <c r="P55">
-        <v>142.8571428571429</v>
+        <v>142.85714285714289</v>
       </c>
       <c r="Q55" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -8294,13 +8578,13 @@
         <v>275</v>
       </c>
       <c r="P56">
-        <v>172.4137931034483</v>
+        <v>172.41379310344831</v>
       </c>
       <c r="Q56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -8341,13 +8625,13 @@
         <v>275</v>
       </c>
       <c r="P57">
-        <v>367.6470588235294</v>
+        <v>367.64705882352939</v>
       </c>
       <c r="Q57" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -8388,13 +8672,13 @@
         <v>275</v>
       </c>
       <c r="P58">
-        <v>367.6470588235294</v>
+        <v>367.64705882352939</v>
       </c>
       <c r="Q58" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -8441,7 +8725,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>55</v>
       </c>

--- a/data/output/tech_mapping_out.xlsx
+++ b/data/output/tech_mapping_out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1361185_uab_cat/Documents/Documentos/GitHub/calliope_enbios_int/data/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6F07E0656AF0B166937F5F8CB5CD11930978FC7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAEAB68E-72C7-4F95-99C8-4E290FEC646D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_6F07E0656AF0B166937F5F8CB5CD11930978FC7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E451D3B-768C-4AA3-A875-233A0354CD67}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="o&amp;m" sheetId="1" r:id="rId1"/>
     <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'o&amp;m'!$A$1:$T$103</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1422,10 +1425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="164.28515625" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1493,31 +1500,25 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2">
-        <v>11.83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
         <v>192</v>
@@ -1526,54 +1527,48 @@
         <v>198</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="N2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R2">
-        <v>8453085.3761622999</v>
+        <v>304.8780487804878</v>
       </c>
       <c r="S2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3">
-        <v>11.94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>192</v>
@@ -1582,60 +1577,57 @@
         <v>198</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="N3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R3">
-        <v>8375209.380234506</v>
+        <v>304.8780487804878</v>
       </c>
       <c r="S3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>11.83</v>
+        <v>9.9444441659999985</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4">
-        <v>0.49768615902397978</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L4" t="s">
         <v>198</v>
@@ -1644,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O4" t="s">
         <v>207</v>
@@ -1656,45 +1648,42 @@
         <v>209</v>
       </c>
       <c r="R4">
-        <v>8453085.3761622999</v>
+        <v>10055866.203351971</v>
       </c>
       <c r="S4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>11.94</v>
+        <v>9.9444441659999985</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5">
-        <v>0.50231384097602017</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L5" t="s">
         <v>198</v>
@@ -1703,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O5" t="s">
         <v>207</v>
@@ -1715,42 +1704,36 @@
         <v>209</v>
       </c>
       <c r="R5">
-        <v>8375209.380234506</v>
+        <v>10055866.203351971</v>
       </c>
       <c r="S5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>9.9444441659999985</v>
-      </c>
-      <c r="G6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
         <v>198</v>
@@ -1759,51 +1742,45 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O6" t="s">
         <v>207</v>
       </c>
       <c r="P6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R6">
-        <v>10055866.203351971</v>
+        <v>10000</v>
       </c>
       <c r="S6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7">
-        <v>5.54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" t="s">
         <v>192</v>
@@ -1821,39 +1798,48 @@
         <v>207</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R7">
-        <v>18050541.516245492</v>
+        <v>10000</v>
       </c>
       <c r="S7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>11.83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8">
+        <v>0.49768615902397978</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
         <v>192</v>
@@ -1871,45 +1857,48 @@
         <v>207</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R8">
-        <v>10000</v>
+        <v>8453085.3761622999</v>
       </c>
       <c r="S8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F9">
-        <v>33.299999999999997</v>
+        <v>11.83</v>
       </c>
       <c r="G9" t="s">
         <v>92</v>
       </c>
+      <c r="H9">
+        <v>0.49768615902397978</v>
+      </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
         <v>192</v>
@@ -1933,21 +1922,21 @@
         <v>209</v>
       </c>
       <c r="R9">
-        <v>3003003.0030030031</v>
+        <v>8453085.3761622999</v>
       </c>
       <c r="S9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
@@ -1961,11 +1950,8 @@
       <c r="G10" t="s">
         <v>92</v>
       </c>
-      <c r="H10">
-        <v>0.49768615902397978</v>
-      </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
         <v>184</v>
@@ -2000,34 +1986,34 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>11.94</v>
+        <v>11.83</v>
       </c>
       <c r="G11" t="s">
         <v>92</v>
       </c>
       <c r="H11">
-        <v>0.50231384097602017</v>
+        <v>0.49768615902397978</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
         <v>192</v>
@@ -2051,7 +2037,7 @@
         <v>209</v>
       </c>
       <c r="R11">
-        <v>8375209.380234506</v>
+        <v>8453085.3761622999</v>
       </c>
       <c r="S11" t="s">
         <v>215</v>
@@ -2059,31 +2045,31 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>13.9</v>
+        <v>11.83</v>
       </c>
       <c r="G12" t="s">
         <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
         <v>192</v>
@@ -2107,39 +2093,42 @@
         <v>209</v>
       </c>
       <c r="R12">
-        <v>7194244.6043165466</v>
+        <v>8453085.3761622999</v>
       </c>
       <c r="S12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>5.54</v>
+        <v>11.83</v>
       </c>
       <c r="G13" t="s">
         <v>92</v>
       </c>
+      <c r="H13">
+        <v>0.49768615902397978</v>
+      </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
         <v>192</v>
@@ -2163,21 +2152,21 @@
         <v>209</v>
       </c>
       <c r="R13">
-        <v>18050541.516245492</v>
+        <v>8453085.3761622999</v>
       </c>
       <c r="S13" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
@@ -2186,48 +2175,48 @@
         <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
       </c>
       <c r="K14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" t="s">
         <v>198</v>
       </c>
       <c r="M14">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P14">
         <v>100</v>
       </c>
       <c r="Q14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R14">
-        <v>304.8780487804878</v>
+        <v>100000000</v>
       </c>
       <c r="S14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -2236,7 +2225,7 @@
         <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
         <v>79</v>
@@ -2271,13 +2260,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
@@ -2286,7 +2275,7 @@
         <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J16" t="s">
         <v>79</v>
@@ -2316,18 +2305,18 @@
         <v>100000000</v>
       </c>
       <c r="S16" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
@@ -2336,7 +2325,7 @@
         <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
         <v>79</v>
@@ -2366,18 +2355,18 @@
         <v>100000000</v>
       </c>
       <c r="S17" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
@@ -2386,13 +2375,13 @@
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
         <v>198</v>
@@ -2416,18 +2405,18 @@
         <v>100000000</v>
       </c>
       <c r="S18" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
@@ -2436,13 +2425,13 @@
         <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
         <v>198</v>
@@ -2466,18 +2455,18 @@
         <v>100000000</v>
       </c>
       <c r="S19" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
@@ -2486,7 +2475,7 @@
         <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
@@ -2516,18 +2505,18 @@
         <v>100000000</v>
       </c>
       <c r="S20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -2536,7 +2525,7 @@
         <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="J21" t="s">
         <v>79</v>
@@ -2571,13 +2560,13 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -2586,7 +2575,7 @@
         <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
         <v>79</v>
@@ -2616,18 +2605,18 @@
         <v>100000000</v>
       </c>
       <c r="S22" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
@@ -2636,13 +2625,13 @@
         <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
         <v>79</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
         <v>198</v>
@@ -2666,18 +2655,18 @@
         <v>100000000</v>
       </c>
       <c r="S23" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
@@ -2686,7 +2675,7 @@
         <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
@@ -2721,13 +2710,13 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -2736,7 +2725,7 @@
         <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="J25" t="s">
         <v>79</v>
@@ -2763,7 +2752,7 @@
         <v>209</v>
       </c>
       <c r="R25">
-        <v>100000001</v>
+        <v>100000000</v>
       </c>
       <c r="S25" t="s">
         <v>216</v>
@@ -2771,13 +2760,13 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
@@ -2786,7 +2775,7 @@
         <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J26" t="s">
         <v>79</v>
@@ -2813,7 +2802,7 @@
         <v>209</v>
       </c>
       <c r="R26">
-        <v>100000002</v>
+        <v>100000000</v>
       </c>
       <c r="S26" t="s">
         <v>216</v>
@@ -2821,13 +2810,13 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
@@ -2836,7 +2825,7 @@
         <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="J27" t="s">
         <v>79</v>
@@ -2921,13 +2910,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
@@ -2936,7 +2925,7 @@
         <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="J29" t="s">
         <v>79</v>
@@ -3021,13 +3010,13 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
@@ -3036,7 +3025,7 @@
         <v>79</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="J31" t="s">
         <v>79</v>
@@ -3071,13 +3060,13 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
@@ -3086,7 +3075,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J32" t="s">
         <v>79</v>
@@ -3121,13 +3110,13 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
@@ -3136,7 +3125,7 @@
         <v>79</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="J33" t="s">
         <v>79</v>
@@ -3151,33 +3140,33 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P33">
         <v>100</v>
       </c>
       <c r="Q33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R33">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="S33" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
@@ -3186,7 +3175,7 @@
         <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J34" t="s">
         <v>79</v>
@@ -3216,18 +3205,18 @@
         <v>100000000</v>
       </c>
       <c r="S34" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -3236,7 +3225,7 @@
         <v>79</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="J35" t="s">
         <v>79</v>
@@ -3257,7 +3246,7 @@
         <v>207</v>
       </c>
       <c r="P35">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q35" t="s">
         <v>209</v>
@@ -3266,18 +3255,18 @@
         <v>100000000</v>
       </c>
       <c r="S35" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
@@ -3286,7 +3275,7 @@
         <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J36" t="s">
         <v>79</v>
@@ -3321,28 +3310,28 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L37" t="s">
         <v>198</v>
@@ -3351,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O37" t="s">
         <v>207</v>
@@ -3363,7 +3352,7 @@
         <v>209</v>
       </c>
       <c r="R37">
-        <v>360000000</v>
+        <v>100000000</v>
       </c>
       <c r="S37" t="s">
         <v>216</v>
@@ -3371,28 +3360,28 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J38" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L38" t="s">
         <v>198</v>
@@ -3401,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O38" t="s">
         <v>207</v>
@@ -3413,7 +3402,7 @@
         <v>209</v>
       </c>
       <c r="R38">
-        <v>360000000</v>
+        <v>100000001</v>
       </c>
       <c r="S38" t="s">
         <v>216</v>
@@ -3421,28 +3410,28 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="J39" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s">
         <v>198</v>
@@ -3451,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O39" t="s">
         <v>207</v>
@@ -3463,7 +3452,7 @@
         <v>209</v>
       </c>
       <c r="R39">
-        <v>360000000</v>
+        <v>100000001</v>
       </c>
       <c r="S39" t="s">
         <v>216</v>
@@ -3471,28 +3460,28 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J40" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s">
         <v>198</v>
@@ -3501,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O40" t="s">
         <v>207</v>
@@ -3513,7 +3502,7 @@
         <v>209</v>
       </c>
       <c r="R40">
-        <v>360000000</v>
+        <v>100000002</v>
       </c>
       <c r="S40" t="s">
         <v>216</v>
@@ -3521,25 +3510,25 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="J41" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s">
         <v>194</v>
@@ -3551,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O41" t="s">
         <v>207</v>
@@ -3563,7 +3552,7 @@
         <v>209</v>
       </c>
       <c r="R41">
-        <v>360000000</v>
+        <v>100000002</v>
       </c>
       <c r="S41" t="s">
         <v>216</v>
@@ -3571,7 +3560,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -3580,19 +3569,19 @@
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s">
         <v>198</v>
@@ -3601,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O42" t="s">
         <v>207</v>
@@ -3613,7 +3602,7 @@
         <v>209</v>
       </c>
       <c r="R42">
-        <v>360000000</v>
+        <v>100000000</v>
       </c>
       <c r="S42" t="s">
         <v>218</v>
@@ -3621,28 +3610,28 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="J43" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L43" t="s">
         <v>198</v>
@@ -3651,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O43" t="s">
         <v>207</v>
@@ -3663,36 +3652,36 @@
         <v>209</v>
       </c>
       <c r="R43">
-        <v>360000000</v>
+        <v>100000000</v>
       </c>
       <c r="S43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J44" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L44" t="s">
         <v>198</v>
@@ -3701,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O44" t="s">
         <v>207</v>
@@ -3713,42 +3702,36 @@
         <v>209</v>
       </c>
       <c r="R44">
-        <v>360000000</v>
+        <v>100000000</v>
       </c>
       <c r="S44" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45">
-        <v>5.28</v>
-      </c>
-      <c r="G45" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="J45" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s">
         <v>198</v>
@@ -3757,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O45" t="s">
         <v>207</v>
@@ -3769,36 +3752,36 @@
         <v>209</v>
       </c>
       <c r="R45">
-        <v>18939393.939393941</v>
+        <v>100000000</v>
       </c>
       <c r="S45" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L46" t="s">
         <v>198</v>
@@ -3807,48 +3790,48 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O46" t="s">
         <v>207</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="S46" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="J47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L47" t="s">
         <v>198</v>
@@ -3857,48 +3840,48 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O47" t="s">
         <v>207</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>360000000</v>
       </c>
       <c r="S47" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="J48" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L48" t="s">
         <v>198</v>
@@ -3907,48 +3890,48 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O48" t="s">
         <v>207</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="S48" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="J49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L49" t="s">
         <v>198</v>
@@ -3957,48 +3940,48 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O49" t="s">
         <v>207</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>360000000</v>
       </c>
       <c r="S49" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="J50" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L50" t="s">
         <v>198</v>
@@ -4007,48 +3990,48 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O50" t="s">
         <v>207</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q50" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="S50" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="J51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L51" t="s">
         <v>198</v>
@@ -4057,48 +4040,48 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O51" t="s">
         <v>207</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q51" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>360000000</v>
       </c>
       <c r="S51" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J52" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L52" t="s">
         <v>198</v>
@@ -4107,54 +4090,48 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O52" t="s">
         <v>207</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="S52" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53">
-        <v>11.83</v>
-      </c>
-      <c r="G53" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J53" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L53" t="s">
         <v>198</v>
@@ -4163,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O53" t="s">
         <v>207</v>
@@ -4175,42 +4152,36 @@
         <v>209</v>
       </c>
       <c r="R53">
-        <v>8453085.3761622999</v>
+        <v>360000000</v>
       </c>
       <c r="S53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54">
-        <v>11.94</v>
-      </c>
-      <c r="G54" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J54" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s">
         <v>198</v>
@@ -4219,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O54" t="s">
         <v>207</v>
@@ -4231,45 +4202,36 @@
         <v>209</v>
       </c>
       <c r="R54">
-        <v>8375209.380234506</v>
+        <v>360000000</v>
       </c>
       <c r="S54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55">
-        <v>11.83</v>
-      </c>
-      <c r="G55" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55">
-        <v>0.49768615902397978</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="J55" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K55" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L55" t="s">
         <v>198</v>
@@ -4278,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O55" t="s">
         <v>207</v>
@@ -4290,45 +4252,36 @@
         <v>209</v>
       </c>
       <c r="R55">
-        <v>8453085.3761622999</v>
+        <v>360000000</v>
       </c>
       <c r="S55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56">
-        <v>11.94</v>
-      </c>
-      <c r="G56" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56">
-        <v>0.50231384097602017</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J56" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K56" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L56" t="s">
         <v>198</v>
@@ -4337,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O56" t="s">
         <v>207</v>
@@ -4349,42 +4302,36 @@
         <v>209</v>
       </c>
       <c r="R56">
-        <v>8375209.380234506</v>
+        <v>360000000</v>
       </c>
       <c r="S56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57">
-        <v>9.9444441659999985</v>
-      </c>
-      <c r="G57" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="J57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L57" t="s">
         <v>198</v>
@@ -4393,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O57" t="s">
         <v>207</v>
@@ -4405,7 +4352,7 @@
         <v>209</v>
       </c>
       <c r="R57">
-        <v>10055866.203351971</v>
+        <v>360000000</v>
       </c>
       <c r="S57" t="s">
         <v>216</v>
@@ -4413,34 +4360,28 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58">
-        <v>5.54</v>
-      </c>
-      <c r="G58" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K58" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s">
         <v>198</v>
@@ -4449,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O58" t="s">
         <v>207</v>
@@ -4461,36 +4402,36 @@
         <v>209</v>
       </c>
       <c r="R58">
-        <v>18050541.516245492</v>
+        <v>360000000</v>
       </c>
       <c r="S58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="J59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K59" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L59" t="s">
         <v>198</v>
@@ -4499,54 +4440,48 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O59" t="s">
         <v>207</v>
       </c>
       <c r="P59">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Q59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R59">
-        <v>10000</v>
+        <v>360000000</v>
       </c>
       <c r="S59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="G60" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="J60" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="K60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L60" t="s">
         <v>198</v>
@@ -4555,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O60" t="s">
         <v>207</v>
@@ -4567,45 +4502,36 @@
         <v>209</v>
       </c>
       <c r="R60">
-        <v>3003003.0030030031</v>
+        <v>360000000</v>
       </c>
       <c r="S60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61">
-        <v>11.83</v>
-      </c>
-      <c r="G61" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61">
-        <v>0.49768615902397978</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="J61" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s">
         <v>198</v>
@@ -4614,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O61" t="s">
         <v>207</v>
@@ -4626,42 +4552,33 @@
         <v>209</v>
       </c>
       <c r="R61">
-        <v>8453085.3761622999</v>
+        <v>360000000</v>
       </c>
       <c r="S61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62">
-        <v>11.94</v>
-      </c>
-      <c r="G62" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62">
-        <v>0.50231384097602017</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="J62" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K62" t="s">
         <v>192</v>
@@ -4673,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O62" t="s">
         <v>207</v>
@@ -4685,39 +4602,33 @@
         <v>209</v>
       </c>
       <c r="R62">
-        <v>8375209.380234506</v>
+        <v>360000000</v>
       </c>
       <c r="S62" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63">
-        <v>13.9</v>
-      </c>
-      <c r="G63" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I63" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="J63" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K63" t="s">
         <v>192</v>
@@ -4729,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O63" t="s">
         <v>207</v>
@@ -4741,7 +4652,7 @@
         <v>209</v>
       </c>
       <c r="R63">
-        <v>7194244.6043165466</v>
+        <v>360000000</v>
       </c>
       <c r="S63" t="s">
         <v>218</v>
@@ -4749,31 +4660,31 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F64">
-        <v>5.54</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G64" t="s">
         <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="J64" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s">
         <v>192</v>
@@ -4797,33 +4708,39 @@
         <v>209</v>
       </c>
       <c r="R64">
-        <v>18050541.516245492</v>
+        <v>3003003.0030030031</v>
       </c>
       <c r="S64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" t="s">
-        <v>68</v>
-      </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="F65">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s">
         <v>192</v>
@@ -4832,51 +4749,60 @@
         <v>198</v>
       </c>
       <c r="M65">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P65">
         <v>100</v>
       </c>
       <c r="Q65" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R65">
-        <v>304.8780487804878</v>
+        <v>3003003.0030030031</v>
       </c>
       <c r="S65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F66">
+        <v>11.94</v>
+      </c>
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66">
+        <v>0.50231384097602017</v>
       </c>
       <c r="I66" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="K66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L66" t="s">
         <v>198</v>
@@ -4885,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O66" t="s">
         <v>207</v>
@@ -4897,36 +4823,45 @@
         <v>209</v>
       </c>
       <c r="R66">
-        <v>100000000</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="S66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F67">
+        <v>11.94</v>
+      </c>
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67">
+        <v>0.50231384097602017</v>
       </c>
       <c r="I67" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J67" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="K67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L67" t="s">
         <v>198</v>
@@ -4935,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O67" t="s">
         <v>207</v>
@@ -4947,36 +4882,42 @@
         <v>209</v>
       </c>
       <c r="R67">
-        <v>100000000</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="S67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F68">
+        <v>11.94</v>
+      </c>
+      <c r="G68" t="s">
+        <v>92</v>
       </c>
       <c r="I68" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="J68" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="K68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s">
         <v>198</v>
@@ -4985,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O68" t="s">
         <v>207</v>
@@ -4997,36 +4938,45 @@
         <v>209</v>
       </c>
       <c r="R68">
-        <v>100000000</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="S68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
         <v>20</v>
       </c>
-      <c r="B69" t="s">
-        <v>21</v>
-      </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F69">
+        <v>11.94</v>
+      </c>
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69">
+        <v>0.50231384097602017</v>
       </c>
       <c r="I69" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="J69" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="K69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L69" t="s">
         <v>198</v>
@@ -5035,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O69" t="s">
         <v>207</v>
@@ -5047,36 +4997,42 @@
         <v>209</v>
       </c>
       <c r="R69">
-        <v>100000000</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="S69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
         <v>23</v>
       </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
-      </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F70">
+        <v>11.94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>92</v>
       </c>
       <c r="I70" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J70" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="K70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L70" t="s">
         <v>198</v>
@@ -5085,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O70" t="s">
         <v>207</v>
@@ -5097,36 +5053,45 @@
         <v>209</v>
       </c>
       <c r="R70">
-        <v>100000000</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="S70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F71">
+        <v>11.94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71">
+        <v>0.50231384097602017</v>
       </c>
       <c r="I71" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="J71" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="K71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L71" t="s">
         <v>198</v>
@@ -5135,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O71" t="s">
         <v>207</v>
@@ -5147,36 +5112,42 @@
         <v>209</v>
       </c>
       <c r="R71">
-        <v>100000000</v>
+        <v>8375209.380234506</v>
       </c>
       <c r="S71" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="F72">
+        <v>5.28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>92</v>
       </c>
       <c r="I72" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J72" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="K72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L72" t="s">
         <v>198</v>
@@ -5185,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O72" t="s">
         <v>207</v>
@@ -5197,36 +5168,42 @@
         <v>209</v>
       </c>
       <c r="R72">
-        <v>100000000</v>
+        <v>18939393.939393941</v>
       </c>
       <c r="S72" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="F73">
+        <v>5.28</v>
+      </c>
+      <c r="G73" t="s">
+        <v>92</v>
       </c>
       <c r="I73" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="K73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L73" t="s">
         <v>198</v>
@@ -5235,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O73" t="s">
         <v>207</v>
@@ -5247,36 +5224,42 @@
         <v>209</v>
       </c>
       <c r="R73">
-        <v>100000000</v>
+        <v>18939393.939393941</v>
       </c>
       <c r="S73" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="F74">
+        <v>13.9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>92</v>
       </c>
       <c r="I74" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="J74" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="K74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L74" t="s">
         <v>198</v>
@@ -5285,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O74" t="s">
         <v>207</v>
@@ -5297,36 +5280,42 @@
         <v>209</v>
       </c>
       <c r="R74">
-        <v>100000000</v>
+        <v>7194244.6043165466</v>
       </c>
       <c r="S74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="F75">
+        <v>13.9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>92</v>
       </c>
       <c r="I75" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J75" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="K75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L75" t="s">
         <v>198</v>
@@ -5335,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O75" t="s">
         <v>207</v>
@@ -5347,36 +5336,42 @@
         <v>209</v>
       </c>
       <c r="R75">
-        <v>100000000</v>
+        <v>7194244.6043165466</v>
       </c>
       <c r="S75" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F76">
+        <v>5.54</v>
+      </c>
+      <c r="G76" t="s">
+        <v>92</v>
       </c>
       <c r="I76" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="J76" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="K76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L76" t="s">
         <v>198</v>
@@ -5385,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O76" t="s">
         <v>207</v>
@@ -5397,36 +5392,42 @@
         <v>209</v>
       </c>
       <c r="R76">
-        <v>100000001</v>
+        <v>18050541.516245492</v>
       </c>
       <c r="S76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F77">
+        <v>5.54</v>
+      </c>
+      <c r="G77" t="s">
+        <v>92</v>
       </c>
       <c r="I77" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J77" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="K77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s">
         <v>198</v>
@@ -5435,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O77" t="s">
         <v>207</v>
@@ -5447,36 +5448,42 @@
         <v>209</v>
       </c>
       <c r="R77">
-        <v>100000002</v>
+        <v>18050541.516245492</v>
       </c>
       <c r="S77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F78">
+        <v>5.54</v>
+      </c>
+      <c r="G78" t="s">
+        <v>92</v>
       </c>
       <c r="I78" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="J78" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="K78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L78" t="s">
         <v>198</v>
@@ -5485,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O78" t="s">
         <v>207</v>
@@ -5497,36 +5504,42 @@
         <v>209</v>
       </c>
       <c r="R78">
-        <v>100000000</v>
+        <v>18050541.516245492</v>
       </c>
       <c r="S78" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F79">
+        <v>5.54</v>
+      </c>
+      <c r="G79" t="s">
+        <v>92</v>
       </c>
       <c r="I79" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J79" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="K79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L79" t="s">
         <v>198</v>
@@ -5535,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O79" t="s">
         <v>207</v>
@@ -5547,21 +5560,21 @@
         <v>209</v>
       </c>
       <c r="R79">
-        <v>100000000</v>
+        <v>18050541.516245492</v>
       </c>
       <c r="S79" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
         <v>68</v>
@@ -5570,7 +5583,7 @@
         <v>79</v>
       </c>
       <c r="I80" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="J80" t="s">
         <v>79</v>
@@ -5585,33 +5598,33 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P80">
         <v>100</v>
       </c>
       <c r="Q80" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R80">
-        <v>100000000</v>
+        <v>100000</v>
       </c>
       <c r="S80" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
         <v>68</v>
@@ -5620,7 +5633,7 @@
         <v>79</v>
       </c>
       <c r="I81" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J81" t="s">
         <v>79</v>
@@ -5635,33 +5648,33 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P81">
         <v>100</v>
       </c>
       <c r="Q81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R81">
-        <v>100000000</v>
+        <v>100000</v>
       </c>
       <c r="S81" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
         <v>68</v>
@@ -5670,7 +5683,7 @@
         <v>79</v>
       </c>
       <c r="I82" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="J82" t="s">
         <v>79</v>
@@ -5700,18 +5713,18 @@
         <v>100000000</v>
       </c>
       <c r="S82" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
         <v>68</v>
@@ -5720,7 +5733,7 @@
         <v>79</v>
       </c>
       <c r="I83" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="J83" t="s">
         <v>79</v>
@@ -5741,7 +5754,7 @@
         <v>207</v>
       </c>
       <c r="P83">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q83" t="s">
         <v>209</v>
@@ -5750,18 +5763,18 @@
         <v>100000000</v>
       </c>
       <c r="S83" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
         <v>68</v>
@@ -5770,7 +5783,7 @@
         <v>79</v>
       </c>
       <c r="I84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J84" t="s">
         <v>79</v>
@@ -5785,19 +5798,19 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P84">
         <v>100</v>
       </c>
       <c r="Q84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R84">
-        <v>100000</v>
+        <v>100000000</v>
       </c>
       <c r="S84" t="s">
         <v>225</v>
@@ -5805,13 +5818,13 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
         <v>68</v>
@@ -5841,7 +5854,7 @@
         <v>207</v>
       </c>
       <c r="P85">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q85" t="s">
         <v>209</v>
@@ -5855,28 +5868,28 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I86" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="J86" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="K86" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L86" t="s">
         <v>198</v>
@@ -5885,48 +5898,48 @@
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O86" t="s">
         <v>207</v>
       </c>
       <c r="P86">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R86">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="S86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
         <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I87" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J87" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="K87" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L87" t="s">
         <v>198</v>
@@ -5935,48 +5948,48 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O87" t="s">
         <v>207</v>
       </c>
       <c r="P87">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R87">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="S87" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I88" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="J88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K88" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L88" t="s">
         <v>198</v>
@@ -5985,48 +5998,48 @@
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O88" t="s">
         <v>207</v>
       </c>
       <c r="P88">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R88">
-        <v>360000000</v>
+        <v>1</v>
       </c>
       <c r="S88" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E89" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I89" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J89" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L89" t="s">
         <v>198</v>
@@ -6035,48 +6048,48 @@
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O89" t="s">
         <v>207</v>
       </c>
       <c r="P89">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R89">
-        <v>360000000</v>
+        <v>1</v>
       </c>
       <c r="S89" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E90" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I90" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="J90" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K90" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L90" t="s">
         <v>198</v>
@@ -6085,48 +6098,48 @@
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O90" t="s">
         <v>207</v>
       </c>
       <c r="P90">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R90">
-        <v>360000000</v>
+        <v>1</v>
       </c>
       <c r="S90" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
         <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E91" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J91" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K91" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L91" t="s">
         <v>198</v>
@@ -6135,48 +6148,48 @@
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O91" t="s">
         <v>207</v>
       </c>
       <c r="P91">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R91">
-        <v>360000000</v>
+        <v>1</v>
       </c>
       <c r="S91" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E92" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I92" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J92" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K92" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L92" t="s">
         <v>198</v>
@@ -6185,48 +6198,48 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O92" t="s">
         <v>207</v>
       </c>
       <c r="P92">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R92">
-        <v>360000000</v>
+        <v>1</v>
       </c>
       <c r="S92" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
         <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E93" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J93" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K93" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L93" t="s">
         <v>198</v>
@@ -6235,48 +6248,48 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O93" t="s">
         <v>207</v>
       </c>
       <c r="P93">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R93">
-        <v>360000000</v>
+        <v>1</v>
       </c>
       <c r="S93" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E94" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I94" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L94" t="s">
         <v>198</v>
@@ -6285,45 +6298,45 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O94" t="s">
         <v>207</v>
       </c>
       <c r="P94">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R94">
-        <v>360000000</v>
+        <v>1</v>
       </c>
       <c r="S94" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
         <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E95" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="J95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K95" t="s">
         <v>193</v>
@@ -6335,51 +6348,45 @@
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O95" t="s">
         <v>207</v>
       </c>
       <c r="P95">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R95">
-        <v>360000000</v>
+        <v>1</v>
       </c>
       <c r="S95" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>88</v>
-      </c>
-      <c r="F96">
-        <v>5.28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I96" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="J96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K96" t="s">
         <v>192</v>
@@ -6391,33 +6398,33 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O96" t="s">
         <v>207</v>
       </c>
       <c r="P96">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="R96">
-        <v>18939393.939393941</v>
+        <v>1</v>
       </c>
       <c r="S96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B97" t="s">
         <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D97" t="s">
         <v>72</v>
@@ -6426,13 +6433,13 @@
         <v>89</v>
       </c>
       <c r="I97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J97" t="s">
         <v>191</v>
       </c>
       <c r="K97" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L97" t="s">
         <v>198</v>
@@ -6441,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O97" t="s">
         <v>207</v>
@@ -6450,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R97">
         <v>1</v>
@@ -6461,13 +6468,13 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
         <v>72</v>
@@ -6476,7 +6483,7 @@
         <v>89</v>
       </c>
       <c r="I98" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="J98" t="s">
         <v>191</v>
@@ -6511,22 +6518,22 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
         <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D99" t="s">
         <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I99" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J99" t="s">
         <v>191</v>
@@ -6541,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O99" t="s">
         <v>207</v>
@@ -6550,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R99">
         <v>1</v>
@@ -6561,28 +6568,28 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E100" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I100" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="J100" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="K100" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L100" t="s">
         <v>198</v>
@@ -6591,45 +6598,45 @@
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O100" t="s">
         <v>207</v>
       </c>
       <c r="P100">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q100" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R100">
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="S100" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I101" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="J101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K101" t="s">
         <v>193</v>
@@ -6641,48 +6648,48 @@
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O101" t="s">
         <v>207</v>
       </c>
       <c r="P101">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q101" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="R101">
-        <v>1</v>
+        <v>360000000</v>
       </c>
       <c r="S101" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B102" t="s">
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I102" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="J102" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="K102" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L102" t="s">
         <v>198</v>
@@ -6691,48 +6698,48 @@
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O102" t="s">
         <v>207</v>
       </c>
       <c r="P102">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q102" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R102">
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="S102" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
         <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I103" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="J103" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K103" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L103" t="s">
         <v>198</v>
@@ -6741,25 +6748,30 @@
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O103" t="s">
         <v>207</v>
       </c>
       <c r="P103">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q103" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R103">
-        <v>1</v>
+        <v>360000000</v>
       </c>
       <c r="S103" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T103" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T103">
+      <sortCondition ref="I1:I103"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
